--- a/static/excels/customers.xlsx
+++ b/static/excels/customers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>person_id</t>
   </si>
@@ -43,24 +43,24 @@
     <t>picture</t>
   </si>
   <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
     <t>userId</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -73,25 +73,31 @@
     <t>time</t>
   </si>
   <si>
-    <t>bb</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>kanekubpom</t>
-  </si>
-  <si>
-    <t>TWfJfugZGMhj6M04YSz1NPDmgkZ2</t>
-  </si>
-  <si>
-    <t>22/08/21</t>
-  </si>
-  <si>
-    <t>15:58:13</t>
-  </si>
-  <si>
-    <t>15:58:08</t>
+    <t>afw</t>
+  </si>
+  <si>
+    <t>af</t>
+  </si>
+  <si>
+    <t>wf</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>gwa</t>
+  </si>
+  <si>
+    <t>Kane AI</t>
+  </si>
+  <si>
+    <t>3JLDFMWX8EWPp55E4grzAJFpebu2</t>
+  </si>
+  <si>
+    <t>30/08/21</t>
+  </si>
+  <si>
+    <t>14:41:56</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,43 +524,35 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="T2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>21</v>
-      </c>
-      <c r="R3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
